--- a/other/documents/QAPP/memos/EPA/EPA Memo April 1, 2024/KWF QAPP Field Meter Data Form.xlsx
+++ b/other/documents/QAPP/memos/EPA/EPA Memo April 1, 2024/KWF QAPP Field Meter Data Form.xlsx
@@ -125,9 +125,6 @@
     <t>Observation Time* (HH:MM)</t>
   </si>
   <si>
-    <t>Instru-ment ID</t>
-  </si>
-  <si>
     <t>Rep-licate</t>
   </si>
   <si>
@@ -138,13 +135,16 @@
   </si>
   <si>
     <t>** TURBIDITY - FOR OFFICE USE ONLY (LEAVE DATA BLANK IN FIELD)</t>
+  </si>
+  <si>
+    <t>Instrument ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +264,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -779,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -882,6 +889,96 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -934,15 +1031,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -952,87 +1040,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,16 +1259,16 @@
   <dimension ref="A1:I999"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C14"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.09765625" customWidth="1"/>
-    <col min="2" max="2" width="6.69921875" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="9.19921875" customWidth="1"/>
-    <col min="5" max="5" width="14.296875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="7.09765625" customWidth="1"/>
     <col min="7" max="7" width="6.09765625" customWidth="1"/>
     <col min="8" max="8" width="11.19921875" customWidth="1"/>
@@ -1296,61 +1304,61 @@
       <c r="A3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
       <c r="D3" s="51"/>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
       <c r="D4" s="51"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
     </row>
     <row r="7" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
@@ -1377,22 +1385,22 @@
       <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="91"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
     </row>
     <row r="10" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="55" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>31</v>
@@ -1413,15 +1421,15 @@
         <v>17</v>
       </c>
       <c r="I10" s="67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="77" t="s">
+      <c r="B11" s="92"/>
+      <c r="C11" s="107" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="62"/>
@@ -1431,14 +1439,14 @@
       <c r="F11" s="31"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="119">
+      <c r="I11" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="78"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="62"/>
       <c r="E12" s="59" t="s">
         <v>22</v>
@@ -1446,12 +1454,12 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="120"/>
+      <c r="I12" s="99"/>
     </row>
     <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="78"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="62"/>
       <c r="E13" s="60" t="s">
         <v>29</v>
@@ -1459,12 +1467,12 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="120"/>
+      <c r="I13" s="99"/>
     </row>
     <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="112"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="79"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="62"/>
       <c r="E14" s="59" t="s">
         <v>23</v>
@@ -1472,11 +1480,11 @@
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="120"/>
+      <c r="I14" s="99"/>
     </row>
     <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="11"/>
@@ -1487,25 +1495,25 @@
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
-      <c r="I15" s="121"/>
+      <c r="I15" s="100"/>
     </row>
     <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="116"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="97"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="80" t="s">
+      <c r="B17" s="92"/>
+      <c r="C17" s="110" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="62"/>
@@ -1515,14 +1523,14 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
-      <c r="I17" s="122">
+      <c r="I17" s="101">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="81"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="111"/>
       <c r="D18" s="62"/>
       <c r="E18" s="11" t="s">
         <v>22</v>
@@ -1530,12 +1538,12 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="123"/>
+      <c r="I18" s="102"/>
     </row>
     <row r="19" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="81"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="111"/>
       <c r="D19" s="62"/>
       <c r="E19" s="50" t="s">
         <v>29</v>
@@ -1543,12 +1551,12 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="123"/>
+      <c r="I19" s="102"/>
     </row>
     <row r="20" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="112"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="82"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="62"/>
       <c r="E20" s="11" t="s">
         <v>23</v>
@@ -1556,11 +1564,11 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="123"/>
+      <c r="I20" s="102"/>
     </row>
     <row r="21" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="11"/>
@@ -1571,31 +1579,31 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="124"/>
+      <c r="I21" s="103"/>
     </row>
     <row r="22" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="103"/>
+      <c r="A22" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="79"/>
     </row>
     <row r="23" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="104"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="106"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="82"/>
     </row>
     <row r="24" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
@@ -1610,7 +1618,7 @@
     </row>
     <row r="25" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="53"/>
@@ -1641,57 +1649,57 @@
       <c r="D27" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="108" t="s">
+      <c r="E27" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="109"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="85"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="39"/>
       <c r="C28" s="34"/>
       <c r="D28" s="71"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="94"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="88"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38"/>
       <c r="B29" s="39"/>
       <c r="C29" s="34"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="94"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="88"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="97"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="124"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="9"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="100"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
@@ -1825,9 +1833,9 @@
       <c r="F43" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="118"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="46"/>
@@ -1837,12 +1845,12 @@
       <c r="E44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="87"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
@@ -1855,9 +1863,9 @@
       <c r="F45" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="117"/>
     </row>
     <row r="46" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
@@ -1931,8 +1939,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="75"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="105"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
@@ -2371,7 +2379,7 @@
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="76"/>
+      <c r="F92" s="106"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
@@ -2382,7 +2390,7 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="75"/>
+      <c r="F93" s="105"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
@@ -3295,19 +3303,6 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="A22:I23"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="I17:I21"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="F92:F93"/>
     <mergeCell ref="C11:C14"/>
@@ -3324,6 +3319,19 @@
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="E29:I29"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="A22:I23"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="I17:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/other/documents/QAPP/memos/EPA/EPA Memo April 1, 2024/KWF QAPP Field Meter Data Form.xlsx
+++ b/other/documents/QAPP/memos/EPA/EPA Memo April 1, 2024/KWF QAPP Field Meter Data Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/kenai-river-wqx/other/documents/QAPP/memos/EPA/EPA Memo April 1^J 2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_4DA69B2CC66F4DA06F065722B4ED90DAEAE85B6F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E040B9D-D6D9-4058-9613-540D74B6B587}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_4DA69B2CC66F4DA06F065722B4ED90DAEAE85B6F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{369E6175-0BCE-4C6A-8D95-B20DEE175946}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="-2205" windowWidth="21600" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35370" yWindow="-2805" windowWidth="20760" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Section A - Sample Event</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Section C - Site Photos</t>
-  </si>
-  <si>
     <t>Section E - General Notes</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Model</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Site Name</t>
   </si>
   <si>
@@ -132,12 +126,6 @@
     <t>Collection Time (HH:MM)</t>
   </si>
   <si>
-    <t>when data is recorded from the meter. Only turbidity measurements will have values for both times.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Note: for turbidity, collection time refers to when the water sample is collected. Observation time refers to </t>
-  </si>
-  <si>
     <t>Observation Time* (HH:MM)</t>
   </si>
   <si>
@@ -150,18 +138,28 @@
     <t>Hach 2100P**</t>
   </si>
   <si>
-    <t>**2024 Kenai Baseline field crews will not carry the Hach 2100P Instrument in the field</t>
+    <t xml:space="preserve"> ** TURBIDITY - FOR LAB USE ONLY (LEAVE BLANK IN FIELD)</t>
+  </si>
+  <si>
+    <t>Section C - Photos (OPTIONAL)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -279,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -532,19 +530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -779,264 +764,357 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,6 +1130,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1254,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1276,8 +1358,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="16"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="24"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -1296,64 +1378,64 @@
       <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="53"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
+      <c r="A5" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
@@ -1367,8 +1449,8 @@
       <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>28</v>
+      <c r="A8" s="41" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="1"/>
@@ -1380,228 +1462,228 @@
       <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="72"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="113"/>
     </row>
     <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="79" t="s">
+      <c r="A10" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="83" t="s">
+      <c r="C10" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="101" t="s">
-        <v>39</v>
+      <c r="I10" s="59" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="84" t="s">
-        <v>23</v>
+      <c r="A11" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="57" t="s">
+        <v>22</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="91">
+      <c r="I11" s="90">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="84" t="s">
-        <v>24</v>
+      <c r="A12" s="82"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="57" t="s">
+        <v>23</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="92"/>
+      <c r="I12" s="91"/>
     </row>
     <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="85" t="s">
-        <v>32</v>
+      <c r="A13" s="82"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="58" t="s">
+        <v>30</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="92"/>
+      <c r="I13" s="91"/>
     </row>
     <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="84" t="s">
-        <v>25</v>
+      <c r="A14" s="83"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="57" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="92"/>
+      <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="112" t="s">
-        <v>40</v>
+      <c r="A15" s="64" t="s">
+        <v>36</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
-      <c r="I15" s="93"/>
+      <c r="I15" s="92"/>
     </row>
     <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="90"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="87"/>
+      <c r="A17" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="60"/>
       <c r="E17" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
-      <c r="I17" s="94">
+      <c r="I17" s="93">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="87"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="95"/>
+      <c r="I18" s="94"/>
     </row>
     <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="52" t="s">
-        <v>32</v>
+      <c r="A19" s="82"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="49" t="s">
+        <v>30</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="95"/>
+      <c r="I19" s="94"/>
     </row>
     <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="87"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="95"/>
+      <c r="I20" s="94"/>
     </row>
     <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="112" t="s">
-        <v>40</v>
+      <c r="A21" s="64" t="s">
+        <v>36</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="96"/>
+      <c r="I21" s="95"/>
     </row>
     <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="104"/>
+      <c r="A22" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="76"/>
     </row>
     <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="105"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="107"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="79"/>
     </row>
     <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
@@ -1609,107 +1691,100 @@
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
-      <c r="I24" s="47"/>
+      <c r="I24" s="44"/>
     </row>
     <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B25" s="36"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="39"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="123"/>
     </row>
     <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="47"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="124"/>
     </row>
     <row r="27" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38" t="s">
+      <c r="B27" s="126"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="123" t="s">
+      <c r="E27" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="124"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="130"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="116"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="121"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="34"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="116"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="119"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="71"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="9"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="122"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="74"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="97"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="99"/>
+      <c r="A32" s="61"/>
+      <c r="I32" s="62"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="24"/>
@@ -1721,8 +1796,8 @@
       <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="50"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
@@ -1745,79 +1820,52 @@
       <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="97"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="99"/>
+      <c r="A36" s="61"/>
+      <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="97"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="99"/>
+      <c r="A37" s="61"/>
+      <c r="I37" s="62"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="97"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="99"/>
+      <c r="A38" s="61"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="26"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
       <c r="I40" s="26"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
       <c r="I41" s="26"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="113" t="s">
-        <v>41</v>
-      </c>
+      <c r="A42" s="65"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
@@ -1828,7 +1876,7 @@
       <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -1836,12 +1884,12 @@
       <c r="F43" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -1851,24 +1899,24 @@
       <c r="F44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="50"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
-      <c r="E45" s="51"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -1942,8 +1990,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="61"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="97"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
@@ -2382,7 +2430,7 @@
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="62"/>
+      <c r="F92" s="98"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
@@ -2393,7 +2441,7 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="61"/>
+      <c r="F93" s="97"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
@@ -3306,6 +3354,20 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="A9:I9"/>
     <mergeCell ref="E29:I29"/>
     <mergeCell ref="E30:I30"/>
     <mergeCell ref="E31:I31"/>
@@ -3321,20 +3383,6 @@
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="I11:I15"/>
     <mergeCell ref="I17:I21"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
